--- a/stimuli/NAD field.xlsx
+++ b/stimuli/NAD field.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="19820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="stimuli" sheetId="2" r:id="rId2"/>
+    <sheet name="word-check" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="152">
   <si>
     <t>p</t>
   </si>
@@ -449,6 +450,72 @@
   </si>
   <si>
     <t>so</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>yuw:a (roll string on the thigh)</t>
+  </si>
+  <si>
+    <t>kele (attach to)</t>
+  </si>
+  <si>
+    <t>k:eemi (kin term)</t>
+  </si>
+  <si>
+    <t>milé (humility)</t>
+  </si>
+  <si>
+    <t>miyó (two)</t>
+  </si>
+  <si>
+    <t>syll1syll2</t>
+  </si>
+  <si>
+    <t>syll3</t>
+  </si>
+  <si>
+    <t>syll1</t>
+  </si>
+  <si>
+    <t>syll2syll3</t>
+  </si>
+  <si>
+    <t>pa (body); paa (walking)</t>
+  </si>
+  <si>
+    <t>paa ghi (steep place)</t>
+  </si>
+  <si>
+    <t>d:ââ (dry out)</t>
+  </si>
+  <si>
+    <t>yu (his leg); yuu (origin); yó (put something)</t>
+  </si>
+  <si>
+    <t>kee (kin term; go up); kéé (throw away)</t>
+  </si>
+  <si>
+    <t>nuu (throat); ńó (small breadfruit)</t>
+  </si>
+  <si>
+    <t>too (skin); tóó (sitting/being; turtle's rear end)</t>
+  </si>
+  <si>
+    <t>Waa (M/F name)</t>
+  </si>
+  <si>
+    <t>ghime (get itchy)</t>
+  </si>
+  <si>
+    <t>Yuutoo (M name)</t>
+  </si>
+  <si>
+    <t>yuw:a (roll string on thigh)</t>
+  </si>
+  <si>
+    <t>lémi (kin term)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +744,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -687,7 +772,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -765,8 +850,60 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,8 +971,12 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -874,6 +1015,32 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -912,6 +1079,32 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,7 +1375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,18 +1383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1214,94 +1407,104 @@
         <v>1</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
-      <c r="G2" s="8"/>
+    <row r="2" spans="1:17" ht="15">
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="15">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1311,34 +1514,34 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14"/>
+      <c r="P5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1348,65 +1551,74 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="Q6" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="M7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="N7" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="14"/>
+      <c r="P7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1416,150 +1628,179 @@
       <c r="E8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="F8">
+        <v>3</v>
+      </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="N8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="N9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="Q10" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="Q11" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>126</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="M12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="14"/>
+      <c r="P12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="Q12" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13">
+        <v>4</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1567,21 +1808,33 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="Q13" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1589,449 +1842,465 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="14"/>
+      <c r="P14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="Q14" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="Q15" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="E16" s="36"/>
-      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="6:16">
-      <c r="G17" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="6:17">
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="N17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="6:16">
-      <c r="G18" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="6:17">
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="N18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="6:16">
-      <c r="G19" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="6:17">
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="M19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="N19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="6:16">
-      <c r="G20" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="6:17">
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="M20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="N20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="6:16">
-      <c r="G21" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="6:17">
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="6:16">
-      <c r="G22" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="6:17">
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="M22" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="N22" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="6:16">
-      <c r="G23" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="6:17">
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="M23" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="N23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="6:16">
-      <c r="G24" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="6:17">
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="M24" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="N24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
-    </row>
-    <row r="27" spans="6:16">
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="27" spans="6:17">
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="6:16" ht="15">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="6:17" ht="15">
       <c r="F28" s="5"/>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="26"/>
+      <c r="L28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="M28" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="N28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="27"/>
+      <c r="P28" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="P28" s="28"/>
-    </row>
-    <row r="29" spans="6:16">
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="6:17">
       <c r="F29" s="4"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="J29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="27"/>
+      <c r="L29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="M29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="N29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28" t="s">
+      <c r="O29" s="27"/>
+      <c r="P29" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="31" t="s">
+      <c r="Q29" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="6:16">
+    <row r="30" spans="6:17">
       <c r="F30" s="6"/>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="I30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="J30" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="M30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="N30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="27"/>
+      <c r="P30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="Q30" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="6:16">
-      <c r="G31" s="34" t="s">
+    <row r="31" spans="6:17">
+      <c r="H31" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="I31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="J31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="27"/>
+      <c r="L31" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="M31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="N31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28" t="s">
+      <c r="O31" s="27"/>
+      <c r="P31" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="35" t="s">
+      <c r="Q31" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="6:16">
-      <c r="G32" s="27"/>
+    <row r="32" spans="6:17">
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="27"/>
+      <c r="L32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="M32" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28" t="s">
+      <c r="O32" s="27"/>
+      <c r="P32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="7:16">
-      <c r="G33" s="27"/>
+    <row r="33" spans="8:17">
       <c r="H33" s="27"/>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="27"/>
+      <c r="J33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="27"/>
+      <c r="L33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="M33" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="N33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="27"/>
+      <c r="P33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="Q33" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="7:16">
-      <c r="G34" s="27"/>
+    <row r="34" spans="8:17">
       <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="27"/>
+      <c r="J34" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="27"/>
+      <c r="L34" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="M34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="N34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="27"/>
+      <c r="P34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="35" t="s">
+      <c r="Q34" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="7:16">
-      <c r="G35" s="27"/>
+    <row r="35" spans="8:17">
       <c r="H35" s="27"/>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="27"/>
+      <c r="J35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="27"/>
+      <c r="L35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="M35" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="N35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28" t="s">
+      <c r="O35" s="27"/>
+      <c r="P35" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="28" t="s">
+      <c r="Q35" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="7:16">
-      <c r="G36" s="27"/>
+    <row r="36" spans="8:17">
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="32" t="s">
+      <c r="K36" s="27"/>
+      <c r="L36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="M36" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M36" s="32" t="s">
+      <c r="N36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28" t="s">
+      <c r="O36" s="27"/>
+      <c r="P36" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P36" s="28" t="s">
+      <c r="Q36" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="7:16">
-      <c r="G37" s="27"/>
+    <row r="37" spans="8:17">
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="27"/>
+      <c r="L37" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="M37" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="N37" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28" t="s">
+      <c r="O37" s="27"/>
+      <c r="P37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P37" s="28" t="s">
+      <c r="Q37" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="7:16">
-      <c r="G38" s="27"/>
+    <row r="38" spans="8:17">
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -2039,15 +2308,15 @@
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
-      <c r="O38" s="28" t="s">
+      <c r="O38" s="27"/>
+      <c r="P38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="Q38" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="7:16">
-      <c r="G39" s="27"/>
+    <row r="39" spans="8:17">
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -2055,1116 +2324,1117 @@
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="28" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="28" t="s">
+      <c r="Q39" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="7:16">
-      <c r="G40" s="27"/>
+    <row r="40" spans="8:17">
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="28" t="s">
+      <c r="K40" s="27"/>
+      <c r="L40" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
-      <c r="O40" s="28" t="s">
+      <c r="O40" s="27"/>
+      <c r="P40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="28" t="s">
+      <c r="Q40" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="7:16">
-      <c r="G41" s="27"/>
+    <row r="41" spans="8:17">
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="29" t="s">
+      <c r="K41" s="27"/>
+      <c r="L41" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="M41" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="N41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
-    </row>
-    <row r="42" spans="7:16">
-      <c r="G42" s="27"/>
+      <c r="Q41" s="27"/>
+    </row>
+    <row r="42" spans="8:17">
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="27"/>
+      <c r="L42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="M42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="N42" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="27"/>
       <c r="O42" s="27"/>
       <c r="P42" s="27"/>
-    </row>
-    <row r="43" spans="7:16">
-      <c r="G43" s="27"/>
+      <c r="Q42" s="27"/>
+    </row>
+    <row r="43" spans="8:17">
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="27"/>
+      <c r="L43" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="M43" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="N43" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="27"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
-    </row>
-    <row r="44" spans="7:16">
-      <c r="G44" s="27"/>
+      <c r="Q43" s="27"/>
+    </row>
+    <row r="44" spans="8:17">
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="27"/>
+      <c r="L44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="M44" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="N44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="27"/>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
-    </row>
-    <row r="45" spans="7:16">
-      <c r="G45" s="27"/>
+      <c r="Q44" s="27"/>
+    </row>
+    <row r="45" spans="8:17">
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="27"/>
+      <c r="L45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="M45" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="32" t="s">
+      <c r="N45" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="27"/>
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
-    </row>
-    <row r="46" spans="7:16">
-      <c r="G46" s="27"/>
+      <c r="Q45" s="27"/>
+    </row>
+    <row r="46" spans="8:17">
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="27"/>
+      <c r="L46" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="M46" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M46" s="34" t="s">
+      <c r="N46" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N46" s="27"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
-    </row>
-    <row r="47" spans="7:16">
-      <c r="G47" s="27"/>
+      <c r="Q46" s="27"/>
+    </row>
+    <row r="47" spans="8:17">
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="27"/>
+      <c r="L47" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="M47" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="N47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="27"/>
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
-    </row>
-    <row r="48" spans="7:16">
-      <c r="G48" s="27"/>
+      <c r="Q47" s="27"/>
+    </row>
+    <row r="48" spans="8:17">
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="27"/>
+      <c r="L48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="M48" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="M48" s="32" t="s">
+      <c r="N48" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-    </row>
-    <row r="49" spans="7:16">
-      <c r="G49" s="27"/>
+      <c r="Q48" s="27"/>
+    </row>
+    <row r="49" spans="8:17">
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="27"/>
+      <c r="L49" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="M49" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="N49" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-    </row>
-    <row r="50" spans="7:16" s="36" customFormat="1">
-      <c r="K50" s="61"/>
-      <c r="M50" s="61"/>
-    </row>
-    <row r="51" spans="7:16" s="36" customFormat="1">
-      <c r="K51" s="61"/>
-      <c r="M51" s="61"/>
-    </row>
-    <row r="52" spans="7:16" s="36" customFormat="1">
-      <c r="K52" s="61"/>
-      <c r="M52" s="61"/>
-    </row>
-    <row r="53" spans="7:16" ht="15">
-      <c r="G53" s="37" t="s">
+      <c r="Q49" s="27"/>
+    </row>
+    <row r="50" spans="8:17" s="36" customFormat="1">
+      <c r="L50" s="61"/>
+      <c r="N50" s="61"/>
+    </row>
+    <row r="51" spans="8:17" s="36" customFormat="1">
+      <c r="L51" s="61"/>
+      <c r="N51" s="61"/>
+    </row>
+    <row r="52" spans="8:17" s="36" customFormat="1">
+      <c r="L52" s="61"/>
+      <c r="N52" s="61"/>
+    </row>
+    <row r="53" spans="8:17" ht="15">
+      <c r="H53" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="37"/>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
-      <c r="K53" s="37" t="s">
+      <c r="K53" s="37"/>
+      <c r="L53" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="M53" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="N53" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N53" s="38"/>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="38"/>
+      <c r="P53" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="P53" s="39"/>
-    </row>
-    <row r="54" spans="7:16">
-      <c r="G54" s="40" t="s">
+      <c r="Q53" s="39"/>
+    </row>
+    <row r="54" spans="8:17">
+      <c r="H54" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="I54" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="J54" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="38"/>
+      <c r="L54" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L54" s="41" t="s">
+      <c r="M54" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M54" s="40" t="s">
+      <c r="N54" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="38"/>
+      <c r="P54" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P54" s="42" t="s">
+      <c r="Q54" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="7:16">
-      <c r="G55" s="43" t="s">
+    <row r="55" spans="8:17">
+      <c r="H55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="I55" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="I55" s="41" t="s">
+      <c r="J55" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="43" t="s">
+      <c r="K55" s="38"/>
+      <c r="L55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="M55" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="N55" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N55" s="38"/>
-      <c r="O55" s="39" t="s">
+      <c r="O55" s="38"/>
+      <c r="P55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="44" t="s">
+      <c r="Q55" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="7:16">
-      <c r="G56" s="45" t="s">
+    <row r="56" spans="8:17">
+      <c r="H56" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="I56" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="41" t="s">
+      <c r="J56" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="38"/>
-      <c r="K56" s="45" t="s">
+      <c r="K56" s="38"/>
+      <c r="L56" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="41" t="s">
+      <c r="M56" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="45" t="s">
+      <c r="N56" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="38"/>
-      <c r="O56" s="39" t="s">
+      <c r="O56" s="38"/>
+      <c r="P56" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="P56" s="46" t="s">
+      <c r="Q56" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="7:16">
-      <c r="G57" s="38"/>
+    <row r="57" spans="8:17">
       <c r="H57" s="38"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="40" t="s">
+      <c r="I57" s="38"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L57" s="41" t="s">
+      <c r="M57" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="N57" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="38"/>
+      <c r="P57" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="P57" s="42" t="s">
+      <c r="Q57" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="7:16">
-      <c r="G58" s="38"/>
+    <row r="58" spans="8:17">
       <c r="H58" s="38"/>
-      <c r="I58" s="41" t="s">
+      <c r="I58" s="38"/>
+      <c r="J58" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="43" t="s">
+      <c r="K58" s="38"/>
+      <c r="L58" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="41" t="s">
+      <c r="M58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M58" s="43" t="s">
+      <c r="N58" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39" t="s">
+      <c r="O58" s="38"/>
+      <c r="P58" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P58" s="44" t="s">
+      <c r="Q58" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="7:16">
-      <c r="G59" s="38"/>
+    <row r="59" spans="8:17">
       <c r="H59" s="38"/>
-      <c r="I59" s="41" t="s">
+      <c r="I59" s="38"/>
+      <c r="J59" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="45" t="s">
+      <c r="K59" s="38"/>
+      <c r="L59" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="41" t="s">
+      <c r="M59" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M59" s="45" t="s">
+      <c r="N59" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N59" s="38"/>
-      <c r="O59" s="39" t="s">
+      <c r="O59" s="38"/>
+      <c r="P59" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="46" t="s">
+      <c r="Q59" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="7:16">
-      <c r="G60" s="38"/>
+    <row r="60" spans="8:17">
       <c r="H60" s="38"/>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="38"/>
+      <c r="J60" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="38"/>
+      <c r="L60" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="41" t="s">
+      <c r="M60" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="40" t="s">
+      <c r="N60" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39" t="s">
+      <c r="O60" s="38"/>
+      <c r="P60" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P60" s="47" t="s">
+      <c r="Q60" s="47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="7:16">
-      <c r="G61" s="38"/>
+    <row r="61" spans="8:17">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="43" t="s">
+      <c r="K61" s="38"/>
+      <c r="L61" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="41" t="s">
+      <c r="M61" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="43" t="s">
+      <c r="N61" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N61" s="38"/>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="38"/>
+      <c r="P61" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P61" s="47" t="s">
+      <c r="Q61" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="7:16">
-      <c r="G62" s="38"/>
+    <row r="62" spans="8:17">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="45" t="s">
+      <c r="K62" s="38"/>
+      <c r="L62" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="41" t="s">
+      <c r="M62" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="45" t="s">
+      <c r="N62" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="38"/>
-      <c r="O62" s="39" t="s">
+      <c r="O62" s="38"/>
+      <c r="P62" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="47" t="s">
+      <c r="Q62" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="7:16">
-      <c r="G63" s="38"/>
+    <row r="63" spans="8:17">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="39" t="s">
+      <c r="K63" s="38"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P63" s="39" t="s">
+      <c r="Q63" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="7:16">
-      <c r="G64" s="38"/>
+    <row r="64" spans="8:17">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="39" t="s">
+      <c r="K64" s="38"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="Q64" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="7:16">
-      <c r="G65" s="38"/>
+    <row r="65" spans="8:17">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="38"/>
+      <c r="L65" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="38"/>
+      <c r="P65" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="Q65" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="7:16">
-      <c r="G66" s="38"/>
+    <row r="66" spans="8:17">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="40" t="s">
+      <c r="K66" s="38"/>
+      <c r="L66" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L66" s="41" t="s">
+      <c r="M66" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M66" s="40" t="s">
+      <c r="N66" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="38"/>
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
-    </row>
-    <row r="67" spans="7:16">
-      <c r="G67" s="38"/>
+      <c r="Q66" s="38"/>
+    </row>
+    <row r="67" spans="8:17">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="43" t="s">
+      <c r="K67" s="38"/>
+      <c r="L67" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="41" t="s">
+      <c r="M67" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M67" s="43" t="s">
+      <c r="N67" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N67" s="38"/>
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
-    </row>
-    <row r="68" spans="7:16">
-      <c r="G68" s="38"/>
+      <c r="Q67" s="38"/>
+    </row>
+    <row r="68" spans="8:17">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="45" t="s">
+      <c r="K68" s="38"/>
+      <c r="L68" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="41" t="s">
+      <c r="M68" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M68" s="45" t="s">
+      <c r="N68" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="38"/>
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
-    </row>
-    <row r="69" spans="7:16">
-      <c r="G69" s="38"/>
+      <c r="Q68" s="38"/>
+    </row>
+    <row r="69" spans="8:17">
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="40" t="s">
+      <c r="K69" s="38"/>
+      <c r="L69" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L69" s="41" t="s">
+      <c r="M69" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="M69" s="40" t="s">
+      <c r="N69" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="38"/>
       <c r="O69" s="38"/>
       <c r="P69" s="38"/>
-    </row>
-    <row r="70" spans="7:16">
-      <c r="G70" s="38"/>
+      <c r="Q69" s="38"/>
+    </row>
+    <row r="70" spans="8:17">
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
-      <c r="K70" s="43" t="s">
+      <c r="K70" s="38"/>
+      <c r="L70" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="41" t="s">
+      <c r="M70" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="M70" s="43" t="s">
+      <c r="N70" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N70" s="38"/>
       <c r="O70" s="38"/>
       <c r="P70" s="38"/>
-    </row>
-    <row r="71" spans="7:16">
-      <c r="G71" s="38"/>
+      <c r="Q70" s="38"/>
+    </row>
+    <row r="71" spans="8:17">
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
-      <c r="K71" s="45" t="s">
+      <c r="K71" s="38"/>
+      <c r="L71" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L71" s="41" t="s">
+      <c r="M71" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="M71" s="45" t="s">
+      <c r="N71" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N71" s="38"/>
       <c r="O71" s="38"/>
       <c r="P71" s="38"/>
-    </row>
-    <row r="72" spans="7:16">
-      <c r="G72" s="38"/>
+      <c r="Q71" s="38"/>
+    </row>
+    <row r="72" spans="8:17">
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
-      <c r="K72" s="40" t="s">
+      <c r="K72" s="38"/>
+      <c r="L72" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L72" s="41" t="s">
+      <c r="M72" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="N72" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="38"/>
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
-    </row>
-    <row r="73" spans="7:16">
-      <c r="G73" s="38"/>
+      <c r="Q72" s="38"/>
+    </row>
+    <row r="73" spans="8:17">
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
-      <c r="K73" s="43" t="s">
+      <c r="K73" s="38"/>
+      <c r="L73" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="41" t="s">
+      <c r="M73" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="M73" s="43" t="s">
+      <c r="N73" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N73" s="38"/>
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
-    </row>
-    <row r="74" spans="7:16">
-      <c r="G74" s="38"/>
+      <c r="Q73" s="38"/>
+    </row>
+    <row r="74" spans="8:17">
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
-      <c r="K74" s="45" t="s">
+      <c r="K74" s="38"/>
+      <c r="L74" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="41" t="s">
+      <c r="M74" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="M74" s="45" t="s">
+      <c r="N74" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N74" s="38"/>
       <c r="O74" s="38"/>
       <c r="P74" s="38"/>
-    </row>
-    <row r="78" spans="7:16" ht="18">
-      <c r="G78" s="48" t="s">
+      <c r="Q74" s="38"/>
+    </row>
+    <row r="78" spans="8:17" ht="18">
+      <c r="H78" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="49"/>
       <c r="I78" s="49"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60" t="s">
+      <c r="J78" s="49"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="L78" s="60" t="s">
+      <c r="M78" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="M78" s="60" t="s">
+      <c r="N78" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="N78" s="50"/>
-      <c r="O78" s="51" t="s">
+      <c r="O78" s="50"/>
+      <c r="P78" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="P78" s="51"/>
-    </row>
-    <row r="79" spans="7:16">
-      <c r="G79" s="52" t="s">
+      <c r="Q78" s="51"/>
+    </row>
+    <row r="79" spans="8:17">
+      <c r="H79" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="52" t="s">
+      <c r="I79" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="53" t="s">
+      <c r="J79" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="J79" s="50"/>
-      <c r="K79" s="52" t="s">
+      <c r="K79" s="50"/>
+      <c r="L79" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L79" s="53" t="s">
+      <c r="M79" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M79" s="52" t="s">
+      <c r="N79" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="50"/>
-      <c r="O79" s="51" t="s">
+      <c r="O79" s="50"/>
+      <c r="P79" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P79" s="54" t="s">
+      <c r="Q79" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="7:16">
-      <c r="G80" s="55" t="s">
+    <row r="80" spans="8:17">
+      <c r="H80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="55" t="s">
+      <c r="I80" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I80" s="53" t="s">
+      <c r="J80" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="J80" s="50"/>
-      <c r="K80" s="55" t="s">
+      <c r="K80" s="50"/>
+      <c r="L80" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L80" s="53" t="s">
+      <c r="M80" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M80" s="55" t="s">
+      <c r="N80" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="N80" s="50"/>
-      <c r="O80" s="51" t="s">
+      <c r="O80" s="50"/>
+      <c r="P80" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P80" s="56" t="s">
+      <c r="Q80" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="7:16">
-      <c r="G81" s="57" t="s">
+    <row r="81" spans="8:17">
+      <c r="H81" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="I81" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="53" t="s">
+      <c r="J81" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="57" t="s">
+      <c r="K81" s="50"/>
+      <c r="L81" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L81" s="53" t="s">
+      <c r="M81" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M81" s="57" t="s">
+      <c r="N81" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="50"/>
-      <c r="O81" s="51" t="s">
+      <c r="O81" s="50"/>
+      <c r="P81" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="P81" s="58" t="s">
+      <c r="Q81" s="58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="7:16">
-      <c r="G82" s="50"/>
+    <row r="82" spans="8:17">
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
       <c r="J82" s="50"/>
-      <c r="K82" s="52" t="s">
+      <c r="K82" s="50"/>
+      <c r="L82" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L82" s="53" t="s">
+      <c r="M82" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="M82" s="52" t="s">
+      <c r="N82" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N82" s="50"/>
-      <c r="O82" s="51" t="s">
+      <c r="O82" s="50"/>
+      <c r="P82" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P82" s="54" t="s">
+      <c r="Q82" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="7:16">
-      <c r="G83" s="50"/>
+    <row r="83" spans="8:17">
       <c r="H83" s="50"/>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="50"/>
+      <c r="J83" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="55" t="s">
+      <c r="K83" s="50"/>
+      <c r="L83" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="53" t="s">
+      <c r="M83" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="M83" s="55" t="s">
+      <c r="N83" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="50"/>
-      <c r="O83" s="51" t="s">
+      <c r="O83" s="50"/>
+      <c r="P83" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="P83" s="56" t="s">
+      <c r="Q83" s="56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="7:16">
-      <c r="G84" s="50"/>
+    <row r="84" spans="8:17">
       <c r="H84" s="50"/>
-      <c r="I84" s="59" t="s">
+      <c r="I84" s="50"/>
+      <c r="J84" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="57" t="s">
+      <c r="K84" s="50"/>
+      <c r="L84" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L84" s="53" t="s">
+      <c r="M84" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="M84" s="57" t="s">
+      <c r="N84" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N84" s="50"/>
-      <c r="O84" s="51" t="s">
+      <c r="O84" s="50"/>
+      <c r="P84" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="P84" s="58" t="s">
+      <c r="Q84" s="58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="7:16">
-      <c r="G85" s="50"/>
+    <row r="85" spans="8:17">
       <c r="H85" s="50"/>
-      <c r="I85" s="59" t="s">
+      <c r="I85" s="50"/>
+      <c r="J85" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="J85" s="50"/>
-      <c r="K85" s="52" t="s">
+      <c r="K85" s="50"/>
+      <c r="L85" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="53" t="s">
+      <c r="M85" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M85" s="52" t="s">
+      <c r="N85" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N85" s="50"/>
-      <c r="O85" s="51" t="s">
+      <c r="O85" s="50"/>
+      <c r="P85" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P85" s="51" t="s">
+      <c r="Q85" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="7:16">
-      <c r="G86" s="50"/>
+    <row r="86" spans="8:17">
       <c r="H86" s="50"/>
       <c r="I86" s="50"/>
       <c r="J86" s="50"/>
-      <c r="K86" s="55" t="s">
+      <c r="K86" s="50"/>
+      <c r="L86" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L86" s="53" t="s">
+      <c r="M86" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M86" s="55" t="s">
+      <c r="N86" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="N86" s="50"/>
-      <c r="O86" s="51" t="s">
+      <c r="O86" s="50"/>
+      <c r="P86" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="P86" s="51" t="s">
+      <c r="Q86" s="51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="7:16">
-      <c r="G87" s="50"/>
+    <row r="87" spans="8:17">
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
       <c r="J87" s="50"/>
-      <c r="K87" s="57" t="s">
+      <c r="K87" s="50"/>
+      <c r="L87" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L87" s="53" t="s">
+      <c r="M87" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M87" s="57" t="s">
+      <c r="N87" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="50"/>
-      <c r="O87" s="51" t="s">
+      <c r="O87" s="50"/>
+      <c r="P87" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="P87" s="51" t="s">
+      <c r="Q87" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="7:16">
-      <c r="G88" s="50"/>
+    <row r="88" spans="8:17">
       <c r="H88" s="50"/>
       <c r="I88" s="50"/>
       <c r="J88" s="50"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="51" t="s">
+      <c r="K88" s="50"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="P88" s="51" t="s">
+      <c r="Q88" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="7:16">
-      <c r="G89" s="50"/>
+    <row r="89" spans="8:17">
       <c r="H89" s="50"/>
       <c r="I89" s="50"/>
       <c r="J89" s="50"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="51" t="s">
+      <c r="K89" s="50"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P89" s="51" t="s">
+      <c r="Q89" s="51" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="7:16">
-      <c r="G90" s="50"/>
+    <row r="90" spans="8:17">
       <c r="H90" s="50"/>
       <c r="I90" s="50"/>
       <c r="J90" s="50"/>
-      <c r="K90" s="51" t="s">
+      <c r="K90" s="50"/>
+      <c r="L90" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L90" s="50"/>
       <c r="M90" s="50"/>
       <c r="N90" s="50"/>
-      <c r="O90" s="51" t="s">
+      <c r="O90" s="50"/>
+      <c r="P90" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="P90" s="51" t="s">
+      <c r="Q90" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="7:16">
-      <c r="G91" s="50"/>
+    <row r="91" spans="8:17">
       <c r="H91" s="50"/>
       <c r="I91" s="50"/>
       <c r="J91" s="50"/>
-      <c r="K91" s="52" t="s">
+      <c r="K91" s="50"/>
+      <c r="L91" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L91" s="59" t="s">
+      <c r="M91" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M91" s="52" t="s">
+      <c r="N91" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N91" s="50"/>
       <c r="O91" s="50"/>
       <c r="P91" s="50"/>
-    </row>
-    <row r="92" spans="7:16">
-      <c r="G92" s="50"/>
+      <c r="Q91" s="50"/>
+    </row>
+    <row r="92" spans="8:17">
       <c r="H92" s="50"/>
       <c r="I92" s="50"/>
       <c r="J92" s="50"/>
-      <c r="K92" s="65" t="s">
+      <c r="K92" s="50"/>
+      <c r="L92" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L92" s="66" t="s">
+      <c r="M92" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M92" s="65" t="s">
+      <c r="N92" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="N92" s="50"/>
       <c r="O92" s="50"/>
       <c r="P92" s="50"/>
-    </row>
-    <row r="93" spans="7:16">
-      <c r="G93" s="50"/>
+      <c r="Q92" s="50"/>
+    </row>
+    <row r="93" spans="8:17">
       <c r="H93" s="50"/>
       <c r="I93" s="50"/>
       <c r="J93" s="50"/>
-      <c r="K93" s="57" t="s">
+      <c r="K93" s="50"/>
+      <c r="L93" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L93" s="59" t="s">
+      <c r="M93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M93" s="57" t="s">
+      <c r="N93" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N93" s="50"/>
       <c r="O93" s="50"/>
       <c r="P93" s="50"/>
-    </row>
-    <row r="94" spans="7:16">
-      <c r="G94" s="50"/>
+      <c r="Q93" s="50"/>
+    </row>
+    <row r="94" spans="8:17">
       <c r="H94" s="50"/>
       <c r="I94" s="50"/>
       <c r="J94" s="50"/>
-      <c r="K94" s="52" t="s">
+      <c r="K94" s="50"/>
+      <c r="L94" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L94" s="59" t="s">
+      <c r="M94" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="M94" s="52" t="s">
+      <c r="N94" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="50"/>
       <c r="O94" s="50"/>
       <c r="P94" s="50"/>
-    </row>
-    <row r="95" spans="7:16">
-      <c r="G95" s="50"/>
+      <c r="Q94" s="50"/>
+    </row>
+    <row r="95" spans="8:17">
       <c r="H95" s="50"/>
       <c r="I95" s="50"/>
       <c r="J95" s="50"/>
-      <c r="K95" s="55" t="s">
+      <c r="K95" s="50"/>
+      <c r="L95" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L95" s="59" t="s">
+      <c r="M95" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="M95" s="55" t="s">
+      <c r="N95" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="N95" s="50"/>
       <c r="O95" s="50"/>
       <c r="P95" s="50"/>
-    </row>
-    <row r="96" spans="7:16">
-      <c r="G96" s="50"/>
+      <c r="Q95" s="50"/>
+    </row>
+    <row r="96" spans="8:17">
       <c r="H96" s="50"/>
       <c r="I96" s="50"/>
       <c r="J96" s="50"/>
-      <c r="K96" s="57" t="s">
+      <c r="K96" s="50"/>
+      <c r="L96" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L96" s="59" t="s">
+      <c r="M96" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="M96" s="57" t="s">
+      <c r="N96" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N96" s="50"/>
       <c r="O96" s="50"/>
       <c r="P96" s="50"/>
-    </row>
-    <row r="97" spans="7:16">
-      <c r="G97" s="50"/>
+      <c r="Q96" s="50"/>
+    </row>
+    <row r="97" spans="8:17">
       <c r="H97" s="50"/>
       <c r="I97" s="50"/>
       <c r="J97" s="50"/>
-      <c r="K97" s="52" t="s">
+      <c r="K97" s="50"/>
+      <c r="L97" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L97" s="59" t="s">
+      <c r="M97" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="M97" s="52" t="s">
+      <c r="N97" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N97" s="50"/>
       <c r="O97" s="50"/>
       <c r="P97" s="50"/>
-    </row>
-    <row r="98" spans="7:16">
-      <c r="G98" s="50"/>
+      <c r="Q97" s="50"/>
+    </row>
+    <row r="98" spans="8:17">
       <c r="H98" s="50"/>
       <c r="I98" s="50"/>
       <c r="J98" s="50"/>
-      <c r="K98" s="55" t="s">
+      <c r="K98" s="50"/>
+      <c r="L98" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L98" s="59" t="s">
+      <c r="M98" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="M98" s="55" t="s">
+      <c r="N98" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="N98" s="50"/>
       <c r="O98" s="50"/>
       <c r="P98" s="50"/>
-    </row>
-    <row r="99" spans="7:16">
-      <c r="G99" s="50"/>
+      <c r="Q98" s="50"/>
+    </row>
+    <row r="99" spans="8:17">
       <c r="H99" s="50"/>
       <c r="I99" s="50"/>
       <c r="J99" s="50"/>
-      <c r="K99" s="57" t="s">
+      <c r="K99" s="50"/>
+      <c r="L99" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L99" s="59" t="s">
+      <c r="M99" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="M99" s="57" t="s">
+      <c r="N99" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N99" s="50"/>
       <c r="O99" s="50"/>
       <c r="P99" s="50"/>
+      <c r="Q99" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3181,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
@@ -4631,4 +4901,1934 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" t="s">
+        <v>146</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H73">
+    <sortCondition ref="A2:A73"/>
+    <sortCondition ref="B2:B73"/>
+    <sortCondition ref="C2:C73"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stimuli/NAD field.xlsx
+++ b/stimuli/NAD field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,37 +679,6 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -903,7 +872,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,10 +936,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1375,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,18 +1348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1407,104 +1372,95 @@
         <v>1</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:16" ht="15">
+      <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="15">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="13" t="s">
         <v>110</v>
       </c>
+      <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="L3" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="M3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="17" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4" t="s">
         <v>125</v>
       </c>
+      <c r="G4" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="L4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="18" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1514,34 +1470,34 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="L5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="20" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1551,74 +1507,65 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="L6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="22" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="17" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1628,179 +1575,153 @@
       <c r="E8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="20" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="17" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="P8" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="22" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="M9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="17" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="P9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="18" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="P10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="M11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="P11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>126</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="22" t="s">
+      <c r="K12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="17" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="P12" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1808,33 +1729,22 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="P13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1842,465 +1752,445 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="P14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:16">
       <c r="E15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>29</v>
       </c>
+      <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="17" t="s">
+      <c r="O15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="P15" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:16">
       <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="M16" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="6:17">
+    </row>
+    <row r="17" spans="7:16">
+      <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="M17" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="6:17">
+    </row>
+    <row r="18" spans="7:16">
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="22" t="s">
+      <c r="K18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="M18" s="22" t="s">
         <v>23</v>
       </c>
+      <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-    </row>
-    <row r="19" spans="6:17">
+    </row>
+    <row r="19" spans="7:16">
+      <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="18" t="s">
+      <c r="K19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="6:17">
+    </row>
+    <row r="20" spans="7:16">
+      <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="M20" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="6:17">
+    </row>
+    <row r="21" spans="7:16">
+      <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="L21" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="M21" s="22" t="s">
         <v>23</v>
       </c>
+      <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="6:17">
+    </row>
+    <row r="22" spans="7:16">
+      <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="18" t="s">
+      <c r="K22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="6:17">
+    </row>
+    <row r="23" spans="7:16">
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="20" t="s">
+      <c r="K23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="M23" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="6:17">
+    </row>
+    <row r="24" spans="7:16">
+      <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="22" t="s">
+      <c r="K24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="L24" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="M24" s="22" t="s">
         <v>23</v>
       </c>
+      <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="27" spans="6:17">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="6:17" ht="15">
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="25" t="s">
+    </row>
+    <row r="28" spans="7:16" ht="15">
+      <c r="G28" s="25" t="s">
         <v>113</v>
       </c>
+      <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="25" t="s">
         <v>114</v>
       </c>
+      <c r="L28" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="M28" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28" t="s">
+      <c r="N28" s="27"/>
+      <c r="O28" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="Q28" s="28"/>
-    </row>
-    <row r="29" spans="6:17">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="7:16">
+      <c r="G29" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="H29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="L29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="N29" s="27"/>
+      <c r="O29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16">
+      <c r="G30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="30" t="s">
+      <c r="M30" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="7:16">
+      <c r="G31" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="6:17">
-      <c r="H31" s="34" t="s">
+      <c r="M31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="6:17">
+    </row>
+    <row r="32" spans="7:16">
+      <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="29" t="s">
+      <c r="K32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="L32" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="M32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="28" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="P32" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="8:17">
+    <row r="33" spans="7:16">
+      <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27" t="s">
+      <c r="I33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="32" t="s">
+      <c r="J33" s="27"/>
+      <c r="K33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="L33" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N33" s="32" t="s">
+      <c r="M33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="28" t="s">
+      <c r="N33" s="27"/>
+      <c r="O33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="P33" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="8:17">
+    <row r="34" spans="7:16">
+      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27" t="s">
+      <c r="I34" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="34" t="s">
+      <c r="J34" s="27"/>
+      <c r="K34" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="L34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="34" t="s">
+      <c r="M34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="28" t="s">
+      <c r="N34" s="27"/>
+      <c r="O34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q34" s="35" t="s">
+      <c r="P34" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="8:17">
+    <row r="35" spans="7:16">
+      <c r="G35" s="27"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27" t="s">
+      <c r="I35" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="29" t="s">
+      <c r="J35" s="27"/>
+      <c r="K35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="27" t="s">
+      <c r="L35" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="M35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="P35" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="8:17">
+    <row r="36" spans="7:16">
+      <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="32" t="s">
+      <c r="K36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="L36" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N36" s="32" t="s">
+      <c r="M36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="P36" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="8:17">
+    <row r="37" spans="7:16">
+      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="34" t="s">
+      <c r="K37" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M37" s="27" t="s">
+      <c r="L37" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="M37" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="P37" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q37" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="8:17">
+    <row r="38" spans="7:16">
+      <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -2308,15 +2198,15 @@
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="O38" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="P38" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="8:17">
+    <row r="39" spans="7:16">
+      <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -2324,1117 +2214,1116 @@
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="O39" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="P39" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="8:17">
+    <row r="40" spans="7:16">
+      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="28" t="s">
+      <c r="K40" s="28" t="s">
         <v>29</v>
       </c>
+      <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="O40" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="P40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="8:17">
+    <row r="41" spans="7:16">
+      <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="29" t="s">
+      <c r="K41" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="27" t="s">
+      <c r="L41" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="29" t="s">
+      <c r="M41" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-    </row>
-    <row r="42" spans="8:17">
+    </row>
+    <row r="42" spans="7:16">
+      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="32" t="s">
+      <c r="K42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="27" t="s">
+      <c r="L42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="32" t="s">
+      <c r="M42" s="32" t="s">
         <v>25</v>
       </c>
+      <c r="N42" s="27"/>
       <c r="O42" s="27"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-    </row>
-    <row r="43" spans="8:17">
+    </row>
+    <row r="43" spans="7:16">
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="34" t="s">
+      <c r="K43" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M43" s="27" t="s">
+      <c r="L43" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="34" t="s">
+      <c r="M43" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="N43" s="27"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="8:17">
+    </row>
+    <row r="44" spans="7:16">
+      <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="29" t="s">
+      <c r="K44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="L44" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="N44" s="29" t="s">
+      <c r="M44" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="N44" s="27"/>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-    </row>
-    <row r="45" spans="8:17">
+    </row>
+    <row r="45" spans="7:16">
+      <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="32" t="s">
+      <c r="K45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="27" t="s">
+      <c r="L45" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="N45" s="32" t="s">
+      <c r="M45" s="32" t="s">
         <v>25</v>
       </c>
+      <c r="N45" s="27"/>
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-    </row>
-    <row r="46" spans="8:17">
+    </row>
+    <row r="46" spans="7:16">
+      <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="34" t="s">
+      <c r="K46" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="L46" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="N46" s="34" t="s">
+      <c r="M46" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="N46" s="27"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-    </row>
-    <row r="47" spans="8:17">
+    </row>
+    <row r="47" spans="7:16">
+      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="29" t="s">
+      <c r="K47" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="27" t="s">
+      <c r="L47" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="N47" s="29" t="s">
+      <c r="M47" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="N47" s="27"/>
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-    </row>
-    <row r="48" spans="8:17">
+    </row>
+    <row r="48" spans="7:16">
+      <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="32" t="s">
+      <c r="K48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="27" t="s">
+      <c r="L48" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="N48" s="32" t="s">
+      <c r="M48" s="32" t="s">
         <v>25</v>
       </c>
+      <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-    </row>
-    <row r="49" spans="8:17">
+    </row>
+    <row r="49" spans="7:16">
+      <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="34" t="s">
+      <c r="K49" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="M49" s="27" t="s">
+      <c r="L49" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="N49" s="34" t="s">
+      <c r="M49" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-    </row>
-    <row r="50" spans="8:17" s="36" customFormat="1">
-      <c r="L50" s="61"/>
-      <c r="N50" s="61"/>
-    </row>
-    <row r="51" spans="8:17" s="36" customFormat="1">
-      <c r="L51" s="61"/>
-      <c r="N51" s="61"/>
-    </row>
-    <row r="52" spans="8:17" s="36" customFormat="1">
-      <c r="L52" s="61"/>
-      <c r="N52" s="61"/>
-    </row>
-    <row r="53" spans="8:17" ht="15">
-      <c r="H53" s="37" t="s">
+    </row>
+    <row r="50" spans="7:16" s="36" customFormat="1">
+      <c r="K50" s="61"/>
+      <c r="M50" s="61"/>
+    </row>
+    <row r="51" spans="7:16" s="36" customFormat="1">
+      <c r="K51" s="61"/>
+      <c r="M51" s="61"/>
+    </row>
+    <row r="52" spans="7:16" s="36" customFormat="1">
+      <c r="K52" s="61"/>
+      <c r="M52" s="61"/>
+    </row>
+    <row r="53" spans="7:16" ht="15">
+      <c r="G53" s="37" t="s">
         <v>117</v>
       </c>
+      <c r="H53" s="37"/>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37" t="s">
+      <c r="K53" s="37" t="s">
         <v>114</v>
       </c>
+      <c r="L53" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="M53" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N53" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39" t="s">
+      <c r="N53" s="38"/>
+      <c r="O53" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q53" s="39"/>
-    </row>
-    <row r="54" spans="8:17">
+      <c r="P53" s="39"/>
+    </row>
+    <row r="54" spans="7:16">
+      <c r="G54" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="H54" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="38"/>
+      <c r="K54" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="L54" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="41" t="s">
+      <c r="N54" s="38"/>
+      <c r="O54" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="7:16">
+      <c r="G55" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="38"/>
+      <c r="K55" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="38"/>
-      <c r="L54" s="40" t="s">
+      <c r="M55" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="7:16">
+      <c r="G56" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="38"/>
+      <c r="K56" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="7:16">
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M54" s="41" t="s">
+      <c r="L57" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="7:16">
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="38"/>
+      <c r="K58" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N58" s="38"/>
+      <c r="O58" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="7:16">
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" s="38"/>
+      <c r="K59" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="7:16">
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="38"/>
+      <c r="K60" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L60" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="38"/>
-      <c r="P54" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="8:17">
-      <c r="H55" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J55" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="O55" s="38"/>
-      <c r="P55" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="8:17">
-      <c r="H56" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="38"/>
-      <c r="L56" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="38"/>
-      <c r="P56" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="8:17">
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="M57" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="38"/>
-      <c r="P57" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="8:17">
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N58" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="O58" s="38"/>
-      <c r="P58" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q58" s="44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="8:17">
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q59" s="46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="8:17">
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="M60" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="38"/>
-      <c r="P60" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="8:17">
+    </row>
+    <row r="61" spans="7:16">
+      <c r="G61" s="38"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="43" t="s">
+      <c r="K61" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="41" t="s">
+      <c r="L61" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N61" s="43" t="s">
+      <c r="M61" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="39" t="s">
+      <c r="N61" s="38"/>
+      <c r="O61" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q61" s="47" t="s">
+      <c r="P61" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="8:17">
+    <row r="62" spans="7:16">
+      <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="45" t="s">
+      <c r="K62" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="41" t="s">
+      <c r="L62" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N62" s="45" t="s">
+      <c r="M62" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="38"/>
-      <c r="P62" s="39" t="s">
+      <c r="N62" s="38"/>
+      <c r="O62" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Q62" s="47" t="s">
+      <c r="P62" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="8:17">
+    <row r="63" spans="7:16">
+      <c r="G63" s="38"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="38"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="P63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q63" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="8:17">
+    <row r="64" spans="7:16">
+      <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="38"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="P64" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q64" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="8:17">
+    <row r="65" spans="7:16">
+      <c r="G65" s="38"/>
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="39" t="s">
+      <c r="K65" s="39" t="s">
         <v>29</v>
       </c>
+      <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
+      <c r="O65" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="P65" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q65" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="8:17">
+    <row r="66" spans="7:16">
+      <c r="G66" s="38"/>
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="40" t="s">
+      <c r="K66" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M66" s="41" t="s">
+      <c r="L66" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="40" t="s">
+      <c r="M66" s="40" t="s">
         <v>21</v>
       </c>
+      <c r="N66" s="38"/>
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-    </row>
-    <row r="67" spans="8:17">
+    </row>
+    <row r="67" spans="7:16">
+      <c r="G67" s="38"/>
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="43" t="s">
+      <c r="K67" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M67" s="41" t="s">
+      <c r="L67" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N67" s="43" t="s">
+      <c r="M67" s="43" t="s">
         <v>128</v>
       </c>
+      <c r="N67" s="38"/>
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-    </row>
-    <row r="68" spans="8:17">
+    </row>
+    <row r="68" spans="7:16">
+      <c r="G68" s="38"/>
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="45" t="s">
+      <c r="K68" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="41" t="s">
+      <c r="L68" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="45" t="s">
+      <c r="M68" s="45" t="s">
         <v>24</v>
       </c>
+      <c r="N68" s="38"/>
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-    </row>
-    <row r="69" spans="8:17">
+    </row>
+    <row r="69" spans="7:16">
+      <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="40" t="s">
+      <c r="K69" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M69" s="41" t="s">
+      <c r="L69" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="N69" s="40" t="s">
+      <c r="M69" s="40" t="s">
         <v>21</v>
       </c>
+      <c r="N69" s="38"/>
       <c r="O69" s="38"/>
       <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-    </row>
-    <row r="70" spans="8:17">
+    </row>
+    <row r="70" spans="7:16">
+      <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="43" t="s">
+      <c r="K70" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M70" s="41" t="s">
+      <c r="L70" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="43" t="s">
+      <c r="M70" s="43" t="s">
         <v>128</v>
       </c>
+      <c r="N70" s="38"/>
       <c r="O70" s="38"/>
       <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-    </row>
-    <row r="71" spans="8:17">
+    </row>
+    <row r="71" spans="7:16">
+      <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="45" t="s">
+      <c r="K71" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="41" t="s">
+      <c r="L71" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="N71" s="45" t="s">
+      <c r="M71" s="45" t="s">
         <v>24</v>
       </c>
+      <c r="N71" s="38"/>
       <c r="O71" s="38"/>
       <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-    </row>
-    <row r="72" spans="8:17">
+    </row>
+    <row r="72" spans="7:16">
+      <c r="G72" s="38"/>
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="40" t="s">
+      <c r="K72" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M72" s="41" t="s">
+      <c r="L72" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="N72" s="40" t="s">
+      <c r="M72" s="40" t="s">
         <v>21</v>
       </c>
+      <c r="N72" s="38"/>
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-    </row>
-    <row r="73" spans="8:17">
+    </row>
+    <row r="73" spans="7:16">
+      <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="43" t="s">
+      <c r="K73" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M73" s="41" t="s">
+      <c r="L73" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="N73" s="43" t="s">
+      <c r="M73" s="43" t="s">
         <v>128</v>
       </c>
+      <c r="N73" s="38"/>
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-    </row>
-    <row r="74" spans="8:17">
+    </row>
+    <row r="74" spans="7:16">
+      <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="45" t="s">
+      <c r="K74" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="41" t="s">
+      <c r="L74" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="N74" s="45" t="s">
+      <c r="M74" s="45" t="s">
         <v>24</v>
       </c>
+      <c r="N74" s="38"/>
       <c r="O74" s="38"/>
       <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-    </row>
-    <row r="78" spans="8:17" ht="18">
-      <c r="H78" s="48" t="s">
+    </row>
+    <row r="78" spans="7:16" ht="18">
+      <c r="G78" s="48" t="s">
         <v>119</v>
       </c>
+      <c r="H78" s="49"/>
       <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60" t="s">
+        <v>114</v>
+      </c>
       <c r="L78" s="60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M78" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="O78" s="50"/>
-      <c r="P78" s="51" t="s">
+      <c r="N78" s="50"/>
+      <c r="O78" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Q78" s="51"/>
-    </row>
-    <row r="79" spans="8:17">
+      <c r="P78" s="51"/>
+    </row>
+    <row r="79" spans="7:16">
+      <c r="G79" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="50"/>
+      <c r="K79" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="52" t="s">
+      <c r="L79" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="53" t="s">
+      <c r="N79" s="50"/>
+      <c r="O79" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="7:16">
+      <c r="G80" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" s="50"/>
+      <c r="K80" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K79" s="50"/>
-      <c r="L79" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M79" s="53" t="s">
+      <c r="M80" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="N80" s="50"/>
+      <c r="O80" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="7:16">
+      <c r="G81" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="50"/>
+      <c r="K81" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N79" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="O79" s="50"/>
-      <c r="P79" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q79" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="8:17">
-      <c r="H80" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J80" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="K80" s="50"/>
-      <c r="L80" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="O80" s="50"/>
-      <c r="P80" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" s="56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="8:17">
-      <c r="H81" s="57" t="s">
+      <c r="M81" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="50"/>
+      <c r="O81" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="50"/>
-      <c r="L81" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="M81" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="O81" s="50"/>
-      <c r="P81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="8:17">
+    </row>
+    <row r="82" spans="7:16">
+      <c r="G82" s="50"/>
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
       <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="52" t="s">
+      <c r="K82" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="53" t="s">
+      <c r="L82" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N82" s="52" t="s">
+      <c r="M82" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="O82" s="50"/>
-      <c r="P82" s="51" t="s">
+      <c r="N82" s="50"/>
+      <c r="O82" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="Q82" s="54" t="s">
+      <c r="P82" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="8:17">
+    <row r="83" spans="7:16">
+      <c r="G83" s="50"/>
       <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="59" t="s">
+      <c r="I83" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="K83" s="50"/>
-      <c r="L83" s="55" t="s">
+      <c r="J83" s="50"/>
+      <c r="K83" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M83" s="53" t="s">
+      <c r="L83" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N83" s="55" t="s">
+      <c r="M83" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="O83" s="50"/>
-      <c r="P83" s="51" t="s">
+      <c r="N83" s="50"/>
+      <c r="O83" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Q83" s="56" t="s">
+      <c r="P83" s="56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="8:17">
+    <row r="84" spans="7:16">
+      <c r="G84" s="50"/>
       <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="59" t="s">
+      <c r="I84" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="K84" s="50"/>
-      <c r="L84" s="57" t="s">
+      <c r="J84" s="50"/>
+      <c r="K84" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M84" s="53" t="s">
+      <c r="L84" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="N84" s="57" t="s">
+      <c r="M84" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="O84" s="50"/>
-      <c r="P84" s="51" t="s">
+      <c r="N84" s="50"/>
+      <c r="O84" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="Q84" s="58" t="s">
+      <c r="P84" s="58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="8:17">
+    <row r="85" spans="7:16">
+      <c r="G85" s="50"/>
       <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="59" t="s">
+      <c r="I85" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="K85" s="50"/>
-      <c r="L85" s="52" t="s">
+      <c r="J85" s="50"/>
+      <c r="K85" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M85" s="53" t="s">
+      <c r="L85" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N85" s="52" t="s">
+      <c r="M85" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="O85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="51" t="s">
+        <v>36</v>
+      </c>
       <c r="P85" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q85" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="8:17">
+    <row r="86" spans="7:16">
+      <c r="G86" s="50"/>
       <c r="H86" s="50"/>
       <c r="I86" s="50"/>
       <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="55" t="s">
+      <c r="K86" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M86" s="53" t="s">
+      <c r="L86" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N86" s="55" t="s">
+      <c r="M86" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="O86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="51" t="s">
+        <v>37</v>
+      </c>
       <c r="P86" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q86" s="51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="8:17">
+    <row r="87" spans="7:16">
+      <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
       <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="57" t="s">
+      <c r="K87" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M87" s="53" t="s">
+      <c r="L87" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N87" s="57" t="s">
+      <c r="M87" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="O87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="51" t="s">
+        <v>38</v>
+      </c>
       <c r="P87" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q87" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="8:17">
+    <row r="88" spans="7:16">
+      <c r="G88" s="50"/>
       <c r="H88" s="50"/>
       <c r="I88" s="50"/>
       <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="50"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="51" t="s">
+        <v>40</v>
+      </c>
       <c r="P88" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q88" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="8:17">
+    <row r="89" spans="7:16">
+      <c r="G89" s="50"/>
       <c r="H89" s="50"/>
       <c r="I89" s="50"/>
       <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="50"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="51" t="s">
+        <v>41</v>
+      </c>
       <c r="P89" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q89" s="51" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="8:17">
+    <row r="90" spans="7:16">
+      <c r="G90" s="50"/>
       <c r="H90" s="50"/>
       <c r="I90" s="50"/>
       <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="51" t="s">
+      <c r="K90" s="51" t="s">
         <v>29</v>
       </c>
+      <c r="L90" s="50"/>
       <c r="M90" s="50"/>
       <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
+      <c r="O90" s="51" t="s">
+        <v>42</v>
+      </c>
       <c r="P90" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q90" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="8:17">
+    <row r="91" spans="7:16">
+      <c r="G91" s="50"/>
       <c r="H91" s="50"/>
       <c r="I91" s="50"/>
       <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="52" t="s">
+      <c r="K91" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M91" s="59" t="s">
+      <c r="L91" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N91" s="52" t="s">
+      <c r="M91" s="52" t="s">
         <v>23</v>
       </c>
+      <c r="N91" s="50"/>
       <c r="O91" s="50"/>
       <c r="P91" s="50"/>
-      <c r="Q91" s="50"/>
-    </row>
-    <row r="92" spans="8:17">
+    </row>
+    <row r="92" spans="7:16">
+      <c r="G92" s="50"/>
       <c r="H92" s="50"/>
       <c r="I92" s="50"/>
       <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="65" t="s">
+      <c r="K92" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M92" s="66" t="s">
+      <c r="L92" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N92" s="65" t="s">
+      <c r="M92" s="55" t="s">
         <v>125</v>
       </c>
+      <c r="N92" s="50"/>
       <c r="O92" s="50"/>
       <c r="P92" s="50"/>
-      <c r="Q92" s="50"/>
-    </row>
-    <row r="93" spans="8:17">
+    </row>
+    <row r="93" spans="7:16">
+      <c r="G93" s="50"/>
       <c r="H93" s="50"/>
       <c r="I93" s="50"/>
       <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="57" t="s">
+      <c r="K93" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M93" s="59" t="s">
+      <c r="L93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N93" s="57" t="s">
+      <c r="M93" s="57" t="s">
         <v>20</v>
       </c>
+      <c r="N93" s="50"/>
       <c r="O93" s="50"/>
       <c r="P93" s="50"/>
-      <c r="Q93" s="50"/>
-    </row>
-    <row r="94" spans="8:17">
+    </row>
+    <row r="94" spans="7:16">
+      <c r="G94" s="50"/>
       <c r="H94" s="50"/>
       <c r="I94" s="50"/>
       <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="52" t="s">
+      <c r="K94" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M94" s="59" t="s">
+      <c r="L94" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N94" s="52" t="s">
+      <c r="M94" s="52" t="s">
         <v>23</v>
       </c>
+      <c r="N94" s="50"/>
       <c r="O94" s="50"/>
       <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-    </row>
-    <row r="95" spans="8:17">
+    </row>
+    <row r="95" spans="7:16">
+      <c r="G95" s="50"/>
       <c r="H95" s="50"/>
       <c r="I95" s="50"/>
       <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="55" t="s">
+      <c r="K95" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M95" s="59" t="s">
+      <c r="L95" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N95" s="55" t="s">
+      <c r="M95" s="55" t="s">
         <v>125</v>
       </c>
+      <c r="N95" s="50"/>
       <c r="O95" s="50"/>
       <c r="P95" s="50"/>
-      <c r="Q95" s="50"/>
-    </row>
-    <row r="96" spans="8:17">
+    </row>
+    <row r="96" spans="7:16">
+      <c r="G96" s="50"/>
       <c r="H96" s="50"/>
       <c r="I96" s="50"/>
       <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="57" t="s">
+      <c r="K96" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M96" s="59" t="s">
+      <c r="L96" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N96" s="57" t="s">
+      <c r="M96" s="57" t="s">
         <v>20</v>
       </c>
+      <c r="N96" s="50"/>
       <c r="O96" s="50"/>
       <c r="P96" s="50"/>
-      <c r="Q96" s="50"/>
-    </row>
-    <row r="97" spans="8:17">
+    </row>
+    <row r="97" spans="7:16">
+      <c r="G97" s="50"/>
       <c r="H97" s="50"/>
       <c r="I97" s="50"/>
       <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="52" t="s">
+      <c r="K97" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M97" s="59" t="s">
+      <c r="L97" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="N97" s="52" t="s">
+      <c r="M97" s="52" t="s">
         <v>23</v>
       </c>
+      <c r="N97" s="50"/>
       <c r="O97" s="50"/>
       <c r="P97" s="50"/>
-      <c r="Q97" s="50"/>
-    </row>
-    <row r="98" spans="8:17">
+    </row>
+    <row r="98" spans="7:16">
+      <c r="G98" s="50"/>
       <c r="H98" s="50"/>
       <c r="I98" s="50"/>
       <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="55" t="s">
+      <c r="K98" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="M98" s="59" t="s">
+      <c r="L98" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="N98" s="55" t="s">
+      <c r="M98" s="55" t="s">
         <v>125</v>
       </c>
+      <c r="N98" s="50"/>
       <c r="O98" s="50"/>
       <c r="P98" s="50"/>
-      <c r="Q98" s="50"/>
-    </row>
-    <row r="99" spans="8:17">
+    </row>
+    <row r="99" spans="7:16">
+      <c r="G99" s="50"/>
       <c r="H99" s="50"/>
       <c r="I99" s="50"/>
       <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="57" t="s">
+      <c r="K99" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M99" s="59" t="s">
+      <c r="L99" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="N99" s="57" t="s">
+      <c r="M99" s="57" t="s">
         <v>20</v>
       </c>
+      <c r="N99" s="50"/>
       <c r="O99" s="50"/>
       <c r="P99" s="50"/>
-      <c r="Q99" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4907,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4990,10 +4879,10 @@
       <c r="F3" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="64" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5530,10 +5419,10 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="64" t="s">
         <v>145</v>
       </c>
       <c r="G24" t="s">
@@ -5556,10 +5445,10 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="64" t="s">
         <v>146</v>
       </c>
       <c r="G25" t="s">
@@ -5582,10 +5471,10 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="64" t="s">
         <v>145</v>
       </c>
       <c r="G26" t="s">
@@ -5764,10 +5653,10 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="65" t="s">
         <v>144</v>
       </c>
       <c r="G33" t="s">
@@ -5790,10 +5679,10 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="66" t="s">
         <v>144</v>
       </c>
       <c r="G34" t="s">
@@ -6264,10 +6153,10 @@
       <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="H52" s="69" t="s">
+      <c r="H52" s="65" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6290,10 +6179,10 @@
       <c r="F53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="H53" s="69" t="s">
+      <c r="H53" s="65" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6301,7 +6190,7 @@
       <c r="A54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="63" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="18" t="s">
@@ -6316,10 +6205,10 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="68" t="s">
+      <c r="G54" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="68" t="s">
+      <c r="H54" s="64" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6342,10 +6231,10 @@
       <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="68" t="s">
+      <c r="G55" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="68" t="s">
+      <c r="H55" s="64" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6602,10 +6491,10 @@
       <c r="F65" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H65" s="68" t="s">
+      <c r="H65" s="64" t="s">
         <v>150</v>
       </c>
     </row>

--- a/stimuli/NAD field.xlsx
+++ b/stimuli/NAD field.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="3500" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="stimuli" sheetId="2" r:id="rId2"/>
     <sheet name="word-check" sheetId="3" r:id="rId3"/>
+    <sheet name="word_files.csv" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="159">
   <si>
     <t>p</t>
   </si>
@@ -517,12 +518,33 @@
   <si>
     <t>lémi (kin term)</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>pae</t>
+  </si>
+  <si>
+    <t>wae</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>Concat_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +703,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -741,7 +768,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -871,8 +898,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -940,8 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1006,6 +1050,14 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1070,6 +1122,14 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1340,7 +1400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1350,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6720,4 +6780,1342 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="62"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="62">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>CONCATENATE(A2,"_",B2,"_",C2,".txt")</f>
+        <v>pae_nu_mi.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3,"_",B3,"_",C3,".txt")</f>
+        <v>to_nu_ke.txt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_nu_nga.txt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_le_mi.txt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="62">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_le_ke.txt</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="62">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_le_nga.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_wae_mi.txt</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_wae_ke.txt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="62">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_wae_nga.txt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="62">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_so_mi.txt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="62">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_so_ke.txt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="62">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_so_nga.txt</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="62">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_ghi_mi.txt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="62">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_ghi_ke.txt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="62">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_ghi_nga.txt</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="62">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_da_mi.txt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="62">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_da_ke.txt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="62">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_da_nga.txt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="62">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_pae_to.txt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="62">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_pae_nu.txt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="62">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_pae_wae.txt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="62">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_yu_to.txt</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="62">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_yu_nu.txt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="62">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_yu_wae.txt</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="62">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_mi_to.txt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="62">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_mi_nu.txt</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="62">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_mi_wae.txt</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="62">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_le_to.txt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="62">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_le_nu.txt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="62">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_le_wae.txt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="62">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_ghi_to.txt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="62">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_ghi_nu.txt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="62">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_ghi_wae.txt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="62">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_so_to.txt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="62">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_so_nu.txt</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="62">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>da_so_wae.txt</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="62">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_pae_ke.txt</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="62">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_pae_da.txt</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="62">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_pae_wae.txt</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="62">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_nga_ke.txt</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="62">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_nga_da.txt</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="62">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_nga_wae.txt</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="62">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_yu_ke.txt</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="62">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_yu_da.txt</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="62">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_yu_wae.txt</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="62">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_le_ke.txt</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="62">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_le_da.txt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="62">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_le_wae.txt</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="62">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_ghi_ke.txt</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="62">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_ghi_da.txt</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="62">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_ghi_wae.txt</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="62">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_so_ke.txt</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="62">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_so_da.txt</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="62">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>to_so_wae.txt</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="62">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_wae_nga.txt</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="62">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_wae_mi.txt</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="62">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_wae_to.txt</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="62">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_da_nga.txt</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="62">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_da_mi.txt</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="62">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_da_to.txt</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_nu_nga.txt</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="62">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_nu_mi.txt</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="62">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_nu_to.txt</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="62">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yu_le_nga.txt</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="62">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pae_le_mi.txt</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="62">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" ref="E67:E73" si="1">CONCATENATE(A67,"_",B67,"_",C67,".txt")</f>
+        <v>ke_le_to.txt</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="62">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_ghi_nga.txt</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="62">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pae_ghi_mi.txt</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="62">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_ghi_to.txt</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="62">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_so_nga.txt</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="62">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>pae_so_mi.txt</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="62">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_so_to.txt</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stimuli/NAD field.xlsx
+++ b/stimuli/NAD field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="214">
   <si>
     <t>p</t>
   </si>
@@ -539,12 +539,177 @@
   <si>
     <t>Concat_name</t>
   </si>
+  <si>
+    <t>B2??</t>
+  </si>
+  <si>
+    <t>RF_filename</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Gen_test_pair</t>
+  </si>
+  <si>
+    <t>pae_nu_mi.txt</t>
+  </si>
+  <si>
+    <t>AXC</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>to_nu_ke.txt</t>
+  </si>
+  <si>
+    <t>yu_nu_nga.txt</t>
+  </si>
+  <si>
+    <t>pae_le_mi.txt</t>
+  </si>
+  <si>
+    <t>to_le_ke.txt</t>
+  </si>
+  <si>
+    <t>yu_le_nga.txt</t>
+  </si>
+  <si>
+    <t>pae_wae_mi.txt</t>
+  </si>
+  <si>
+    <t>to_wae_ke.txt</t>
+  </si>
+  <si>
+    <t>yu_wae_nga.txt</t>
+  </si>
+  <si>
+    <t>nga_pae_to.txt</t>
+  </si>
+  <si>
+    <t>ke_pae_nu.txt</t>
+  </si>
+  <si>
+    <t>da_pae_wae.txt</t>
+  </si>
+  <si>
+    <t>nga_yu_to.txt</t>
+  </si>
+  <si>
+    <t>ke_yu_nu.txt</t>
+  </si>
+  <si>
+    <t>da_yu_wae.txt</t>
+  </si>
+  <si>
+    <t>nga_mi_to.txt</t>
+  </si>
+  <si>
+    <t>ke_mi_nu.txt</t>
+  </si>
+  <si>
+    <t>da_mi_wae.txt</t>
+  </si>
+  <si>
+    <t>mi_pae_ke.txt</t>
+  </si>
+  <si>
+    <t>nu_pae_da.txt</t>
+  </si>
+  <si>
+    <t>to_pae_wae.txt</t>
+  </si>
+  <si>
+    <t>mi_nga_ke.txt</t>
+  </si>
+  <si>
+    <t>nu_nga_da.txt</t>
+  </si>
+  <si>
+    <t>to_nga_wae.txt</t>
+  </si>
+  <si>
+    <t>mi_yu_ke.txt</t>
+  </si>
+  <si>
+    <t>nu_yu_da.txt</t>
+  </si>
+  <si>
+    <t>to_yu_wae.txt</t>
+  </si>
+  <si>
+    <t>ke_wae_to.txt</t>
+  </si>
+  <si>
+    <t>yu_da_nga.txt</t>
+  </si>
+  <si>
+    <t>pae_da_mi.txt</t>
+  </si>
+  <si>
+    <t>ke_da_to.txt</t>
+  </si>
+  <si>
+    <t>ke_nu_to.txt</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +869,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -768,7 +941,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -914,8 +1087,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -983,9 +1192,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1058,6 +1269,24 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1130,6 +1359,24 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1400,7 +1647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1410,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:M99"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3400,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4094,7 +4341,7 @@
       <c r="B69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D69" t="s">
@@ -4128,6 +4375,9 @@
       <c r="D71" t="s">
         <v>88</v>
       </c>
+      <c r="E71" s="68" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
@@ -4150,7 +4400,7 @@
       <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D73" t="s">
@@ -4164,7 +4414,7 @@
       <c r="B74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D74" t="s">
@@ -4220,14 +4470,14 @@
       <c r="B78" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4238,7 +4488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -4255,7 +4505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>47</v>
       </c>
@@ -4272,7 +4522,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>49</v>
       </c>
@@ -4289,7 +4539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -4323,7 +4573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
         <v>34</v>
       </c>
@@ -4340,7 +4590,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
@@ -4357,7 +4607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
         <v>35</v>
       </c>
@@ -4374,7 +4624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>48</v>
       </c>
@@ -4391,7 +4641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -4408,7 +4658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -4425,12 +4675,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:9">
       <c r="B94" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:9">
       <c r="B95" s="3" t="s">
         <v>100</v>
       </c>
@@ -4438,100 +4688,144 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
         <v>81</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
         <v>84</v>
       </c>
       <c r="D97" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
         <v>86</v>
       </c>
       <c r="D98" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
         <v>88</v>
       </c>
       <c r="D99" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
         <v>90</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
         <v>92</v>
       </c>
       <c r="D101" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
         <v>84</v>
       </c>
       <c r="D102" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
         <v>94</v>
       </c>
       <c r="D103" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
         <v>97</v>
       </c>
       <c r="D104" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
         <v>81</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
         <v>99</v>
       </c>
       <c r="D106" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
         <v>103</v>
       </c>
@@ -4542,7 +4836,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:9">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4844,6 +5138,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6784,10 +7079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6796,1317 +7091,3342 @@
     <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="62" t="s">
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>CONCATENATE(A2,"_",B2,"_",C2,".txt")</f>
-        <v>pae_nu_mi.txt</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE(A3,"_",B3,"_",C3,".txt")</f>
-        <v>to_nu_ke.txt</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="str">
+        <f>CONCATENATE(A38,"_",B38,"_",C38,".txt")</f>
+        <v>ghi_nga_yu.txt</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:E48" si="0">CONCATENATE(A39,"_",B39,"_",C39,".txt")</f>
+        <v>nu_so_to.txt</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>yu_nu_nga.txt</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+        <v>wae_da_yu.txt</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>mi_pae_da.txt</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>so_mi_pae.txt</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>ke_to_ghi.txt</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>nu_so_to.txt</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>nga_yu_so.txt</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>le_ghi_pae.txt</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>ghi_nga_yu.txt</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>da_ke_to.txt</v>
+      </c>
+      <c r="F48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" t="str">
+        <f>CONCATENATE(A49,"_",B49,"_",C49,".txt")</f>
+        <v>ghi_wae_da.txt</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="str">
+        <f>CONCATENATE(A50,"_",B50,"_",C50,".txt")</f>
+        <v>pae_le_ke.txt</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15">
+      <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="62">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_le_mi.txt</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" t="str">
+        <f>CONCATENATE(A51,"_",B51,"_",C51,".txt")</f>
+        <v>mi_so_da.txt</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="str">
+        <f>CONCATENATE(A52,"_",B52,"_",C52,".txt")</f>
+        <v>to_nga_so.txt</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15">
+      <c r="A53" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="str">
+        <f>CONCATENATE(A53,"_",B53,"_",C53,".txt")</f>
+        <v>le_to_nga.txt</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="62">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_le_ke.txt</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="62" t="s">
+      <c r="C54" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="str">
+        <f>CONCATENATE(A54,"_",B54,"_",C54,".txt")</f>
+        <v>nu_ke_ghi.txt</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15">
+      <c r="A55" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" t="str">
+        <f>CONCATENATE(A55,"_",B55,"_",C55,".txt")</f>
+        <v>pae_le_ke.txt</v>
+      </c>
+      <c r="F55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15">
+      <c r="A56" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" t="str">
+        <f>CONCATENATE(A56,"_",B56,"_",C56,".txt")</f>
+        <v>wae_da_le.txt</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15">
+      <c r="A57" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B57" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" t="str">
+        <f>CONCATENATE(A57,"_",B57,"_",C57,".txt")</f>
+        <v>yu_ghi_nga.txt</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15">
+      <c r="A58" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" t="str">
+        <f>CONCATENATE(A58,"_",B58,"_",C58,".txt")</f>
+        <v>ghi_wae_da.txt</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15">
+      <c r="A59" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="str">
+        <f>CONCATENATE(A59,"_",B59,"_",C59,".txt")</f>
+        <v>so_nu_ke.txt</v>
+      </c>
+      <c r="F59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" t="str">
+        <f>CONCATENATE(A60,"_",B60,"_",C60,".txt")</f>
+        <v>ghi_wae_to.txt</v>
+      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="str">
+        <f>CONCATENATE(A61,"_",B61,"_",C61,".txt")</f>
+        <v>pae_le_nu.txt</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="str">
+        <f>CONCATENATE(A62,"_",B62,"_",C62,".txt")</f>
+        <v>yu_so_to.txt</v>
+      </c>
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" t="str">
+        <f>CONCATENATE(A63,"_",B63,"_",C63,".txt")</f>
+        <v>ke_mi_so.txt</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15">
+      <c r="A64" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="str">
+        <f>CONCATENATE(A64,"_",B64,"_",C64,".txt")</f>
+        <v>le_ke_mi.txt</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" t="str">
+        <f>CONCATENATE(A65,"_",B65,"_",C65,".txt")</f>
+        <v>da_nu_ghi.txt</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15">
+      <c r="A66" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" t="str">
+        <f>CONCATENATE(A66,"_",B66,"_",C66,".txt")</f>
+        <v>pae_le_nu.txt</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15">
+      <c r="A67" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" t="str">
+        <f>CONCATENATE(A67,"_",B67,"_",C67,".txt")</f>
+        <v>wae_to_le.txt</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15">
+      <c r="A68" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="62">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_le_nga.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="62" t="s">
+      <c r="B68" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" t="str">
+        <f>CONCATENATE(A68,"_",B68,"_",C68,".txt")</f>
+        <v>nga_ghi_mi.txt</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15">
+      <c r="A69" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" t="str">
+        <f>CONCATENATE(A69,"_",B69,"_",C69,".txt")</f>
+        <v>ghi_wae_to.txt</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15">
+      <c r="A70" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" t="str">
+        <f>CONCATENATE(A70,"_",B70,"_",C70,".txt")</f>
+        <v>so_da_nu.txt</v>
+      </c>
+      <c r="F70" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="str">
+        <f>CONCATENATE(A71,"_",B71,"_",C71,".txt")</f>
+        <v>ghi_to_ke.txt</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="str">
+        <f>CONCATENATE(A72,"_",B72,"_",C72,".txt")</f>
+        <v>wae_le_pae.txt</v>
+      </c>
+      <c r="F72" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="str">
+        <f>CONCATENATE(A73,"_",B73,"_",C73,".txt")</f>
+        <v>nu_so_ke.txt</v>
+      </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" t="str">
+        <f>CONCATENATE(A74,"_",B74,"_",C74,".txt")</f>
+        <v>nga_yu_so.txt</v>
+      </c>
+      <c r="F74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15">
+      <c r="A75" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" t="str">
+        <f>CONCATENATE(A75,"_",B75,"_",C75,".txt")</f>
+        <v>le_nga_yu.txt</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="str">
+        <f>CONCATENATE(A76,"_",B76,"_",C76,".txt")</f>
+        <v>mi_pae_ghi.txt</v>
+      </c>
+      <c r="F76" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15">
+      <c r="A77" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="B77" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" t="str">
+        <f>CONCATENATE(A77,"_",B77,"_",C77,".txt")</f>
+        <v>wae_le_pae.txt</v>
+      </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15">
+      <c r="A78" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="str">
+        <f>CONCATENATE(A78,"_",B78,"_",C78,".txt")</f>
+        <v>to_ke_le.txt</v>
+      </c>
+      <c r="F78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="str">
+        <f>CONCATENATE(A79,"_",B79,"_",C79,".txt")</f>
+        <v>da_ghi_yu.txt</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15">
+      <c r="A80" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" t="str">
+        <f>CONCATENATE(A80,"_",B80,"_",C80,".txt")</f>
+        <v>ghi_to_ke.txt</v>
+      </c>
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15">
+      <c r="A81" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="62">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_wae_mi.txt</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="62" t="s">
+      <c r="C81" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="str">
+        <f>CONCATENATE(A81,"_",B81,"_",C81,".txt")</f>
+        <v>so_mi_pae.txt</v>
+      </c>
+      <c r="F81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ref="E82:E125" si="1">CONCATENATE(A82,"_",B82,"_",C82,".txt")</f>
+        <v>yu_ghi_nga.txt</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15">
+      <c r="A83" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="62" t="s">
+      <c r="B83" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="62">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_wae_ke.txt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="62" t="s">
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>to_so_ke.txt</v>
+      </c>
+      <c r="F83" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15">
+      <c r="A84" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="62" t="s">
+      <c r="B84" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="62">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_wae_nga.txt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="62" t="s">
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_da_nga.txt</v>
+      </c>
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15">
+      <c r="A85" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B85" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>pae_da_mi.txt</v>
+      </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15">
+      <c r="A86" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C86" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="62">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
         <v>pae_so_mi.txt</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="62" t="s">
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15">
+      <c r="A87" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B87" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>to_ghi_ke.txt</v>
+      </c>
+      <c r="F87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
+      <c r="H87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15">
+      <c r="A88" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C88" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="62">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
         <v>to_so_ke.txt</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="62" t="s">
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s">
+        <v>164</v>
+      </c>
+      <c r="H88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15">
+      <c r="A89" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B89" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C89" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="62">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
         <v>yu_so_nga.txt</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="62" t="s">
+      <c r="F89" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
+      <c r="H89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15">
+      <c r="A90" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B90" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C90" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="62">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D90" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
         <v>pae_ghi_mi.txt</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="62" t="s">
+      <c r="F90" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" t="s">
+        <v>164</v>
+      </c>
+      <c r="H90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15">
+      <c r="A91" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="62">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_ghi_ke.txt</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="62" t="s">
+      <c r="C91" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="62">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_ghi_nga.txt</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="62">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_da_mi.txt</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="62">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_da_ke.txt</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="62">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_da_nga.txt</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="62">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_pae_to.txt</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="62">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_pae_nu.txt</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="62">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_pae_wae.txt</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="62">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_yu_to.txt</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="62">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_yu_nu.txt</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="62">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_yu_wae.txt</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="62">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_mi_to.txt</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="62">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_mi_nu.txt</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="62">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_mi_wae.txt</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="62">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_le_to.txt</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="62">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_le_nu.txt</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="62">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_le_wae.txt</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="62">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_ghi_to.txt</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="62">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_ghi_nu.txt</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="62">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_ghi_wae.txt</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="62">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nga_so_to.txt</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="62">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_so_nu.txt</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="62">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>da_so_wae.txt</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="62">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_pae_ke.txt</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="62">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_pae_da.txt</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="62">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_pae_wae.txt</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="62">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_nga_ke.txt</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="62">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_nga_da.txt</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="62">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_nga_wae.txt</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="62">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_yu_ke.txt</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="62">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_yu_da.txt</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="62">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_yu_wae.txt</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="62">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_le_ke.txt</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="62">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_le_da.txt</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="62">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_le_wae.txt</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="62">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_ghi_ke.txt</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="62">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_ghi_da.txt</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="62">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_ghi_wae.txt</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="62">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mi_so_ke.txt</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="62">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nu_so_da.txt</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="62">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>to_so_wae.txt</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="62">
-        <v>4</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_wae_nga.txt</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="62">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_wae_mi.txt</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="62">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_wae_to.txt</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="62">
-        <v>4</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_da_nga.txt</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="62">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_da_mi.txt</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="62">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_da_to.txt</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="62">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_nu_nga.txt</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="62">
-        <v>4</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_nu_mi.txt</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="62">
-        <v>4</v>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ke_nu_to.txt</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="62">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>yu_le_nga.txt</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="62">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>pae_le_mi.txt</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="62">
-        <v>4</v>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E73" si="1">CONCATENATE(A67,"_",B67,"_",C67,".txt")</f>
-        <v>ke_le_to.txt</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="62">
-        <v>4</v>
-      </c>
-      <c r="E68" s="2" t="str">
+      <c r="D91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" t="str">
         <f t="shared" si="1"/>
         <v>yu_ghi_nga.txt</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="62" t="s">
+      <c r="F91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15">
+      <c r="A92" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>to_da_ke.txt</v>
+      </c>
+      <c r="F92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
+      <c r="H92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15">
+      <c r="A93" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>da_ghi_wae.txt</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s">
+        <v>164</v>
+      </c>
+      <c r="H93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15">
+      <c r="A94" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_le_nu.txt</v>
+      </c>
+      <c r="F94" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s">
+        <v>164</v>
+      </c>
+      <c r="H94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15">
+      <c r="A95" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>da_so_wae.txt</v>
+      </c>
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>nga_so_to.txt</v>
+      </c>
+      <c r="F96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s">
+        <v>164</v>
+      </c>
+      <c r="H96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>nga_le_to.txt</v>
+      </c>
+      <c r="F97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>164</v>
+      </c>
+      <c r="H97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15">
+      <c r="A98" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_ghi_nu.txt</v>
+      </c>
+      <c r="F98" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" t="s">
+        <v>164</v>
+      </c>
+      <c r="H98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15">
+      <c r="A99" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_le_nu.txt</v>
+      </c>
+      <c r="F99" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" t="s">
+        <v>164</v>
+      </c>
+      <c r="H99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15">
+      <c r="A100" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>da_le_wae.txt</v>
+      </c>
+      <c r="F100" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" t="s">
+        <v>164</v>
+      </c>
+      <c r="H100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>nga_ghi_to.txt</v>
+      </c>
+      <c r="F101" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" t="s">
+        <v>164</v>
+      </c>
+      <c r="H101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15">
+      <c r="A102" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>da_ghi_wae.txt</v>
+      </c>
+      <c r="F102" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s">
+        <v>164</v>
+      </c>
+      <c r="H102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15">
+      <c r="A103" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_so_nu.txt</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15">
+      <c r="A104" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>to_ghi_wae.txt</v>
+      </c>
+      <c r="F104" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s">
+        <v>164</v>
+      </c>
+      <c r="H104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15">
+      <c r="A105" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>nu_le_da.txt</v>
+      </c>
+      <c r="F105" t="s">
+        <v>84</v>
+      </c>
+      <c r="G105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15">
+      <c r="A106" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>to_so_wae.txt</v>
+      </c>
+      <c r="F106" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s">
+        <v>164</v>
+      </c>
+      <c r="H106" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>mi_so_ke.txt</v>
+      </c>
+      <c r="F107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s">
+        <v>164</v>
+      </c>
+      <c r="H107" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>mi_le_ke.txt</v>
+      </c>
+      <c r="F108" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" t="s">
+        <v>164</v>
+      </c>
+      <c r="H108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15">
+      <c r="A109" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" t="s">
+        <v>212</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>nu_ghi_da.txt</v>
+      </c>
+      <c r="F109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" t="s">
+        <v>164</v>
+      </c>
+      <c r="H109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15">
+      <c r="A110" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>nu_le_da.txt</v>
+      </c>
+      <c r="F110" t="s">
+        <v>84</v>
+      </c>
+      <c r="G110" t="s">
+        <v>164</v>
+      </c>
+      <c r="H110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15">
+      <c r="A111" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>to_le_wae.txt</v>
+      </c>
+      <c r="F111" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" t="s">
+        <v>164</v>
+      </c>
+      <c r="H111" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" t="s">
+        <v>212</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>mi_ghi_ke.txt</v>
+      </c>
+      <c r="F112" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" t="s">
+        <v>164</v>
+      </c>
+      <c r="H112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15">
+      <c r="A113" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" t="s">
+        <v>212</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>to_ghi_wae.txt</v>
+      </c>
+      <c r="F113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s">
+        <v>164</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15">
+      <c r="A114" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>nu_so_da.txt</v>
+      </c>
+      <c r="F114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G114" t="s">
+        <v>164</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15">
+      <c r="A115" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>213</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_ghi_to.txt</v>
+      </c>
+      <c r="F115" t="s">
+        <v>81</v>
+      </c>
+      <c r="G115" t="s">
+        <v>164</v>
+      </c>
+      <c r="H115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15">
+      <c r="A116" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B116" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>pae_le_mi.txt</v>
+      </c>
+      <c r="F116" t="s">
+        <v>84</v>
+      </c>
+      <c r="G116" t="s">
+        <v>164</v>
+      </c>
+      <c r="H116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15">
+      <c r="A117" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_so_to.txt</v>
+      </c>
+      <c r="F117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G117" t="s">
+        <v>164</v>
+      </c>
+      <c r="H117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15">
+      <c r="A118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" t="s">
+        <v>213</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_so_nga.txt</v>
+      </c>
+      <c r="F118" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15">
+      <c r="A119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_le_nga.txt</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+      <c r="G119" t="s">
+        <v>164</v>
+      </c>
+      <c r="H119" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C120" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="62">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2" t="str">
+      <c r="D120" t="s">
+        <v>213</v>
+      </c>
+      <c r="E120" t="str">
         <f t="shared" si="1"/>
         <v>pae_ghi_mi.txt</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="62" t="s">
+      <c r="F120" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" t="s">
+        <v>164</v>
+      </c>
+      <c r="H120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15">
+      <c r="A121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>213</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>pae_le_mi.txt</v>
+      </c>
+      <c r="F121" t="s">
+        <v>84</v>
+      </c>
+      <c r="G121" t="s">
+        <v>164</v>
+      </c>
+      <c r="H121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15">
+      <c r="A122" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B122" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>ke_le_to.txt</v>
+      </c>
+      <c r="F122" t="s">
+        <v>94</v>
+      </c>
+      <c r="G122" t="s">
+        <v>164</v>
+      </c>
+      <c r="H122" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15">
+      <c r="A123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C123" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" t="s">
+        <v>213</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>yu_ghi_nga.txt</v>
+      </c>
+      <c r="F123" t="s">
+        <v>97</v>
+      </c>
+      <c r="G123" t="s">
+        <v>164</v>
+      </c>
+      <c r="H123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15">
+      <c r="A124" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="62">
-        <v>4</v>
-      </c>
-      <c r="E70" s="2" t="str">
+      <c r="D124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124" t="str">
         <f t="shared" si="1"/>
         <v>ke_ghi_to.txt</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="62" t="s">
+      <c r="F124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" t="s">
+        <v>164</v>
+      </c>
+      <c r="H124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="62">
-        <v>4</v>
-      </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>yu_so_nga.txt</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="62" t="s">
+      <c r="C125" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="62">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2" t="str">
+      <c r="D125" t="s">
+        <v>213</v>
+      </c>
+      <c r="E125" t="str">
         <f t="shared" si="1"/>
         <v>pae_so_mi.txt</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="62">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>ke_so_to.txt</v>
+      <c r="F125" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" t="s">
+        <v>164</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli/NAD field.xlsx
+++ b/stimuli/NAD field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" activeTab="3"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="25040" windowHeight="15500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3647,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D35"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7081,7 +7081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
